--- a/db_structure.xlsx
+++ b/db_structure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Утилиты\Pytnon\NEW_GIT_LIFE\teleword\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CC585B-2540-4533-9EFB-D2586850FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6C1AE0-10CA-4018-A866-400424E8B76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -384,56 +385,56 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,21 +739,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="22"/>
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="23"/>
+      <c r="H1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -761,49 +762,49 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -811,25 +812,25 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -837,19 +838,19 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -857,19 +858,19 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -877,13 +878,13 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -891,18 +892,18 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="E9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>25</v>
       </c>
     </row>

--- a/db_structure.xlsx
+++ b/db_structure.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Утилиты\Pytnon\NEW_GIT_LIFE\teleword\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6C1AE0-10CA-4018-A866-400424E8B76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B86F657-F081-4C54-870D-9217C4CBEED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>s</t>
   </si>
@@ -34,45 +33,24 @@
     <t>d</t>
   </si>
   <si>
-    <t>nick</t>
-  </si>
-  <si>
-    <t>start using</t>
-  </si>
-  <si>
     <t>lang_code</t>
   </si>
   <si>
     <t>is_bot</t>
   </si>
   <si>
-    <t>last using</t>
-  </si>
-  <si>
-    <t>black list</t>
-  </si>
-  <si>
     <t>USERS</t>
   </si>
   <si>
     <t>tg_id</t>
   </si>
   <si>
-    <t>ex</t>
-  </si>
-  <si>
     <t>word</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
-    <t>raiting</t>
-  </si>
-  <si>
     <t>**EX`S WORDS</t>
   </si>
   <si>
@@ -88,29 +66,80 @@
     <t>day</t>
   </si>
   <si>
-    <t>firsttry</t>
-  </si>
-  <si>
     <t>mistakes</t>
   </si>
   <si>
-    <t>totalwords</t>
-  </si>
-  <si>
-    <t>"&lt;------------"</t>
-  </si>
-  <si>
     <t>ex_id</t>
   </si>
   <si>
     <t>shock_mode</t>
+  </si>
+  <si>
+    <t>"|"</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>*USER KEYS</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>key_id</t>
+  </si>
+  <si>
+    <t>day_id</t>
+  </si>
+  <si>
+    <t>first_try_success</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>last_use_time</t>
+  </si>
+  <si>
+    <t>is_blacklisted</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> current_use_time</t>
+  </si>
+  <si>
+    <t>creating_time</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>example_id</t>
+  </si>
+  <si>
+    <t>word_id</t>
+  </si>
+  <si>
+    <t>"|-----------&gt;"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,7 +164,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -145,16 +173,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -173,22 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -197,17 +199,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,30 +246,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -271,169 +283,81 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -715,206 +639,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA75E41-6AFA-4559-BA1A-B555915C2E21}">
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="E1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="H1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="5">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>